--- a/cluster_choice.xlsx
+++ b/cluster_choice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmat\Documents\CDT\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmat\Documents\Github\emerging-topics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7485,12 +7485,12 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="57.1796875" customWidth="1"/>
     <col min="2" max="2" width="26.81640625" customWidth="1"/>
     <col min="3" max="3" width="48.90625" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" customWidth="1"/>
